--- a/문서/itemStore.xlsx
+++ b/문서/itemStore.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SJpark\Desktop\PROJ\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E382B46-345F-432D-9158-379BF4D5DC95}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A808E7-22C8-4FF0-8537-28B279E8FBB9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B7F4B01F-0EB1-4E15-BC05-BF9DDE6A85BB}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="23910" windowHeight="11295" xr2:uid="{B7F4B01F-0EB1-4E15-BC05-BF9DDE6A85BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -406,7 +406,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
